--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,14 +52,46 @@
   </si>
   <si>
     <t>面试结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭俊杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京险峰科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张宝迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海淀区中关村软件园23号306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.前台技术（三级联动）
+2.对于优惠券的表结构设计
+3.tomcat优化
+4.nginx负载均衡的方式
+总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试难度不大，问的比较基础。原因，紧张，导致回答失误。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,7 +139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -119,6 +151,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -126,6 +167,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -172,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,9 +253,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,6 +288,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -413,36 +464,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -451,41 +506,65 @@
       <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4">
+        <v>13840289729</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
-      <formula1>$J$9</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,16 +606,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,12 +657,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,12 +86,24 @@
     <t>面试难度不大，问的比较基础。原因，紧张，导致回答失误。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,10 +265,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,7 +299,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -464,27 +474,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="12.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -513,7 +523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="115.2">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -549,22 +559,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="3" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,31 +602,55 @@
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>1111</v>
+      </c>
+      <c r="C2">
+        <v>1111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
-      <formula1>$J$9</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="3" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,12 +692,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,8 +102,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,9 +265,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,6 +300,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,27 +476,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.75" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -523,7 +525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="115.2">
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -559,23 +561,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -641,16 +643,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,6 +679,35 @@
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4">
+        <v>13840289729</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -692,12 +723,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,24 +86,12 @@
     <t>面试难度不大，问的比较基础。原因，紧张，导致回答失误。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,10 +253,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,7 +287,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -476,27 +462,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="12.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -525,7 +511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="115.2">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -561,23 +547,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="3" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,35 +590,6 @@
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>1111</v>
-      </c>
-      <c r="C2">
-        <v>1111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -643,16 +600,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="3" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="201.6">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -723,12 +687,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
     <sheet name="2019-05-21" sheetId="1" r:id="rId2"/>
     <sheet name="2019-05-22" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="2019-05-23" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -483,20 +483,20 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="12.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -525,7 +525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -568,16 +568,16 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -646,13 +646,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -724,13 +724,79 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+      <formula1>$J$9</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,14 @@
   </si>
   <si>
     <t>面试难度不大，问的比较基础。原因，紧张，导致回答失误。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王世杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德乐文化传播有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -601,16 +609,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.5546875" customWidth="1"/>
@@ -645,7 +653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="201.6">
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="100.8">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -672,6 +680,14 @@
       </c>
       <c r="I2" s="4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
@@ -12,63 +12,50 @@
     <sheet name="2019-05-22" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>HR联系方式</t>
   </si>
   <si>
     <t>地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试开始时间</t>
+  </si>
+  <si>
+    <t>面试结束时间</t>
   </si>
   <si>
     <t>面试问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HR联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>郭俊杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>北京险峰科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>张宝迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>海淀区中关村软件园23号306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.前台技术（三级联动）
@@ -76,64 +63,405 @@
 3.tomcat优化
 4.nginx负载均衡的方式
 总结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>面试难度不大，问的比较基础。原因，紧张，导致回答失误。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试结果</t>
   </si>
   <si>
     <t>王世杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>德乐文化传播有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛礼豪</t>
+  </si>
+  <si>
+    <t>体育文化发展有限公司</t>
+  </si>
+  <si>
+    <t>李丽荣</t>
+  </si>
+  <si>
+    <t>朝阳区建外SOHO西区14号楼2502</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -141,46 +469,335 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -465,224 +1082,226 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="12.7777777777778" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.4444444444444" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.8888888888889" style="2" customWidth="1"/>
+    <col min="6" max="7" width="14.6666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.6666666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="56.7777777777778" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:9">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" ht="115.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="115.2" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>13840289729</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="5">
-        <v>0.45833333333333331</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="G2" s="5">
-        <v>0.47916666666666669</v>
+        <v>0.479166666666667</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="5.77777777777778" customWidth="1"/>
+    <col min="6" max="7" width="14.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="28.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="26.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="100.8">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="2" customFormat="1" ht="100.8" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>13840289729</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="5">
-        <v>0.45833333333333331</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="G2" s="5">
-        <v>0.47916666666666669</v>
+        <v>0.479166666666667</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -690,28 +1309,51 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>18513687308</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lnovo\Desktop\1607b\1607B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shao\Desktop\111\1607B\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9345" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>姓名</t>
   </si>
@@ -111,6 +111,14 @@
   </si>
   <si>
     <t>面试难度不大，问的比较基础。原因，紧张，导致回答失误。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵帅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛唐科技</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -496,20 +504,20 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="14.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="56.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="56.77734375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -538,7 +546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -581,16 +589,16 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="5.75" customWidth="1"/>
-    <col min="6" max="7" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -630,21 +638,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="28.125" customWidth="1"/>
-    <col min="8" max="8" width="26.5" customWidth="1"/>
-    <col min="9" max="9" width="56.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" customWidth="1"/>
+    <col min="9" max="9" width="56.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -673,7 +681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -702,7 +710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -710,7 +718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -730,7 +738,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -767,13 +775,64 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>15710072410</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+      <formula1>$J$9</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>

--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shao\Desktop\111\1607B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\test\1607B\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6B389C-997E-49F6-B0DD-D47BA6299036}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>姓名</t>
   </si>
@@ -121,11 +122,27 @@
     <t>盛唐科技</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>樊正凯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>棋至文化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭女士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王府井东方广场W2座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -497,7 +514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -582,7 +599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -635,11 +652,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -761,10 +778,30 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>18310231437</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$J$9</formula1>
     </dataValidation>
   </dataValidations>
@@ -774,10 +811,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -829,7 +866,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$J$9</formula1>
     </dataValidation>
   </dataValidations>

--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\test\1607B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6B389C-997E-49F6-B0DD-D47BA6299036}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FF8BFA-1570-4389-94ED-500005E50051}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>姓名</t>
   </si>
@@ -136,6 +136,38 @@
   </si>
   <si>
     <t>王府井东方广场W2座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张新震</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真有两把刷子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾女士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝阳区东亿国际</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京多彩互动广告有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海淀区清华同方科技大厦B座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式事务？Springboot与springmvc的区别？Hashmap底层？Springboot原理？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谈谈您对我们公司的理解？你有什么优点？您能给我公司带来什么？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -188,7 +220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -212,6 +244,9 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,10 +688,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -665,7 +700,7 @@
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="28.109375" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" customWidth="1"/>
+    <col min="8" max="8" width="54.21875" customWidth="1"/>
     <col min="9" max="9" width="56.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -796,6 +831,49 @@
       </c>
       <c r="F6" s="7">
         <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>18310490856</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>18310490856</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\test\1607B\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FF8BFA-1570-4389-94ED-500005E50051}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21756" windowHeight="8484" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>姓名</t>
   </si>
@@ -95,87 +89,83 @@
     <t>朝阳区建外SOHO西区14号楼2502</t>
   </si>
   <si>
-    <t>郭俊杰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>网田科技</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>张海杰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>海淀区中关村软件园8号219</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试难度不大，问的比较基础。原因，紧张，导致回答失误。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊正凯</t>
+  </si>
+  <si>
+    <t>棋至文化</t>
+  </si>
+  <si>
+    <t>郭女士</t>
+  </si>
+  <si>
+    <t>王府井东方广场W2座</t>
+  </si>
+  <si>
+    <t>张新震</t>
+  </si>
+  <si>
+    <t>真有两把刷子</t>
+  </si>
+  <si>
+    <t>贾女士</t>
+  </si>
+  <si>
+    <t>朝阳区东亿国际</t>
+  </si>
+  <si>
+    <t>分布式事务？Springboot与springmvc的区别？Hashmap底层？Springboot原理？</t>
+  </si>
+  <si>
+    <t>北京多彩互动广告有限公司</t>
+  </si>
+  <si>
+    <t>海淀区清华同方科技大厦B座</t>
+  </si>
+  <si>
+    <t>谈谈您对我们公司的理解？你有什么优点？您能给我公司带来什么？</t>
+  </si>
+  <si>
+    <t>石斐琪</t>
+  </si>
+  <si>
+    <t>隽才科技</t>
+  </si>
+  <si>
+    <t>韩先生</t>
+  </si>
+  <si>
+    <t>丰台区航丰路时代财富天地</t>
+  </si>
+  <si>
+    <t>java基础  mybatis redis</t>
   </si>
   <si>
     <t>邵帅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>盛唐科技</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>樊正凯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>棋至文化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭女士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王府井东方广场W2座</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张新震</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>真有两把刷子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾女士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝阳区东亿国际</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京多彩互动广告有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海淀区清华同方科技大厦B座</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分布式事务？Springboot与springmvc的区别？Hashmap底层？Springboot原理？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>谈谈您对我们公司的理解？你有什么优点？您能给我公司带来什么？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,21 +182,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -214,9 +528,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -224,18 +780,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -249,17 +805,61 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -544,225 +1144,227 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="56.77734375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="12.7777777777778" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.6666666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.4444444444444" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.8888888888889" style="4" customWidth="1"/>
+    <col min="6" max="7" width="14.6666666666667" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.6666666666667" style="4" customWidth="1"/>
+    <col min="9" max="9" width="56.7777777777778" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="115.2" spans="1:9">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>13840289729</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="5">
-        <v>0.45833333333333298</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="G2" s="5">
-        <v>0.47916666666666702</v>
+        <v>0.479166666666667</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="5.77777777777778" customWidth="1"/>
+    <col min="6" max="7" width="14.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" customWidth="1"/>
-    <col min="8" max="8" width="54.21875" customWidth="1"/>
-    <col min="9" max="9" width="56.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="28.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="54.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="56.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="4" customFormat="1" ht="100.8" spans="1:9">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>13840289729</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="5">
-        <v>0.45833333333333298</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="G2" s="5">
-        <v>0.47916666666666702</v>
+        <v>0.479166666666667</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
+      <c r="I2" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -770,7 +1372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -787,168 +1389,195 @@
         <v>21</v>
       </c>
       <c r="F4" s="7">
-        <v>0.66666666666666696</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>13840289729</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.458333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>25</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
       </c>
       <c r="B6">
         <v>18310231437</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.416666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="7" ht="28.8" spans="1:8">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>18310490856</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>18310490856</v>
       </c>
       <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B9">
+        <v>15901476096</v>
+      </c>
+      <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="7">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
         <v>40</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.659722222222222</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>15710072410</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\test\1607B\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FF8BFA-1570-4389-94ED-500005E50051}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21000" windowHeight="11460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>姓名</t>
   </si>
@@ -77,6 +71,15 @@
     <t>面试结果</t>
   </si>
   <si>
+    <t>郭家宝</t>
+  </si>
+  <si>
+    <t>亚信科技</t>
+  </si>
+  <si>
+    <t>西北旺软件园二期</t>
+  </si>
+  <si>
     <t>王世杰</t>
   </si>
   <si>
@@ -95,87 +98,68 @@
     <t>朝阳区建外SOHO西区14号楼2502</t>
   </si>
   <si>
-    <t>郭俊杰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>网田科技</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>张海杰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>海淀区中关村软件园8号219</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试难度不大，问的比较基础。原因，紧张，导致回答失误。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊正凯</t>
+  </si>
+  <si>
+    <t>棋至文化</t>
+  </si>
+  <si>
+    <t>郭女士</t>
+  </si>
+  <si>
+    <t>王府井东方广场W2座</t>
+  </si>
+  <si>
+    <t>张新震</t>
+  </si>
+  <si>
+    <t>真有两把刷子</t>
+  </si>
+  <si>
+    <t>贾女士</t>
+  </si>
+  <si>
+    <t>朝阳区东亿国际</t>
+  </si>
+  <si>
+    <t>分布式事务？Springboot与springmvc的区别？Hashmap底层？Springboot原理？</t>
+  </si>
+  <si>
+    <t>北京多彩互动广告有限公司</t>
+  </si>
+  <si>
+    <t>海淀区清华同方科技大厦B座</t>
+  </si>
+  <si>
+    <t>谈谈您对我们公司的理解？你有什么优点？您能给我公司带来什么？</t>
   </si>
   <si>
     <t>邵帅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>盛唐科技</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>樊正凯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>棋至文化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭女士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王府井东方广场W2座</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张新震</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>真有两把刷子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾女士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝阳区东亿国际</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京多彩互动广告有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海淀区清华同方科技大厦B座</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分布式事务？Springboot与springmvc的区别？Hashmap底层？Springboot原理？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>谈谈您对我们公司的理解？你有什么优点？您能给我公司带来什么？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,21 +176,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -214,9 +522,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -224,18 +774,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -249,17 +799,61 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -544,321 +1138,343 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="56.77734375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="12.775" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.6666666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.4416666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.8833333333333" style="4" customWidth="1"/>
+    <col min="6" max="7" width="14.6666666666667" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.6666666666667" style="4" customWidth="1"/>
+    <col min="9" max="9" width="56.775" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="94.5" spans="1:9">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>13840289729</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="5">
-        <v>0.45833333333333298</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="G2" s="5">
-        <v>0.47916666666666702</v>
+        <v>0.479166666666667</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="2" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.4416666666667" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="7" width="14.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>18810602856</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.441666666666667</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.482638888888889</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" customWidth="1"/>
-    <col min="8" max="8" width="54.21875" customWidth="1"/>
-    <col min="9" max="9" width="56.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.775" customWidth="1"/>
+    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.4416666666667" customWidth="1"/>
+    <col min="5" max="5" width="28.1083333333333" customWidth="1"/>
+    <col min="8" max="8" width="54.2166666666667" customWidth="1"/>
+    <col min="9" max="9" width="56.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="4" customFormat="1" ht="94.5" spans="1:9">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>13840289729</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="5">
-        <v>0.45833333333333298</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="G2" s="5">
-        <v>0.47916666666666702</v>
+        <v>0.479166666666667</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
+      <c r="I2" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>18513687308</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F4" s="7">
-        <v>0.66666666666666696</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>13840289729</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="G5" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.458333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>18310231437</v>
       </c>
       <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="7">
+        <v>0.416666666666667</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:8">
+      <c r="A7" t="s">
         <v>32</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
       </c>
       <c r="B7">
         <v>18310490856</v>
       </c>
       <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="7">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>18310490856</v>
@@ -870,85 +1486,86 @@
         <v>38</v>
       </c>
       <c r="F8" s="7">
-        <v>0.58333333333333337</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>15710072410</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\httpsgithub.comglc6661607B.git\1607B\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AADA523-44D1-40E6-83CA-3191BF91DDA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21756" windowHeight="8484" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21756" windowHeight="8484" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>姓名</t>
   </si>
@@ -134,38 +140,49 @@
     <t>谈谈您对我们公司的理解？你有什么优点？您能给我公司带来什么？</t>
   </si>
   <si>
+    <t>隽才科技</t>
+  </si>
+  <si>
+    <t>韩先生</t>
+  </si>
+  <si>
+    <t>丰台区航丰路时代财富天地</t>
+  </si>
+  <si>
+    <t>java基础  mybatis redis</t>
+  </si>
+  <si>
+    <t>邵帅</t>
+  </si>
+  <si>
+    <t>盛唐科技</t>
+  </si>
+  <si>
     <t>石斐琪</t>
-  </si>
-  <si>
-    <t>隽才科技</t>
-  </si>
-  <si>
-    <t>韩先生</t>
-  </si>
-  <si>
-    <t>丰台区航丰路时代财富天地</t>
-  </si>
-  <si>
-    <t>java基础  mybatis redis</t>
-  </si>
-  <si>
-    <t>邵帅</t>
-  </si>
-  <si>
-    <t>盛唐科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵露露</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java基础  mybatis redis springboot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.前台技术（三级联动）
+2.对于优惠券的表结构设计
+3.tomcat优化
+4.nginx负载均衡的方式
+总结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,39 +199,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -222,305 +209,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -528,255 +230,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,62 +264,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1144,32 +566,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="12.7777777777778" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.6666666666667" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.4444444444444" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.8888888888889" style="4" customWidth="1"/>
-    <col min="6" max="7" width="14.6666666666667" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.6666666666667" style="4" customWidth="1"/>
-    <col min="9" max="9" width="56.7777777777778" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" style="4" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="56.77734375" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1198,7 +620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="115.2" spans="1:9">
+    <row r="2" spans="1:9" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1215,10 +637,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="5">
-        <v>0.458333333333333</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="G2" s="5">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>13</v>
@@ -1228,30 +650,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="5.77777777777778" customWidth="1"/>
-    <col min="6" max="7" width="14.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1281,32 +702,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="12.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="28.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="54.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="56.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="8" max="8" width="54.21875" customWidth="1"/>
+    <col min="9" max="9" width="56.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="100.8" spans="1:9">
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1352,19 +772,19 @@
         <v>12</v>
       </c>
       <c r="F2" s="5">
-        <v>0.458333333333333</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="G2" s="5">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1372,7 +792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1389,10 +809,10 @@
         <v>21</v>
       </c>
       <c r="F4" s="7">
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1409,13 +829,13 @@
         <v>24</v>
       </c>
       <c r="F5" s="7">
-        <v>0.416666666666667</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="G5" s="7">
-        <v>0.458333333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.45833333333333298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1432,10 +852,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="7">
-        <v>0.416666666666667</v>
-      </c>
-    </row>
-    <row r="7" ht="28.8" spans="1:8">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1452,13 +872,13 @@
         <v>32</v>
       </c>
       <c r="F7" s="7">
-        <v>0.416666666666667</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1472,65 +892,90 @@
         <v>35</v>
       </c>
       <c r="F8" s="7">
-        <v>0.583333333333333</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="H8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>37</v>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B9">
         <v>15901476096</v>
       </c>
       <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
       <c r="F9" s="7">
-        <v>0.659722222222222</v>
+        <v>0.65972222222222199</v>
       </c>
       <c r="G9" s="7">
         <v>0.6875</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>15201646985</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$J$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1559,25 +1004,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>15710072410</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$J$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>姓名</t>
   </si>
@@ -71,12 +71,6 @@
     <t>面试结果</t>
   </si>
   <si>
-    <t>王世杰</t>
-  </si>
-  <si>
-    <t>德乐文化传播有限公司</t>
-  </si>
-  <si>
     <t>葛礼豪</t>
   </si>
   <si>
@@ -87,6 +81,16 @@
   </si>
   <si>
     <t>朝阳区建外SOHO西区14号楼2502</t>
+  </si>
+  <si>
+    <t>1.RDB和AOF的操作命令
+2.怎么在高并发的情况下保证数据的修改
+3.有没有使用过线程安全的list集合
+4.Arraylist和LinkedList哪个遍历的最快
+总结</t>
+  </si>
+  <si>
+    <t>第一次，im Ok</t>
   </si>
 </sst>
 </file>
@@ -99,7 +103,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +120,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -123,40 +202,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,22 +233,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,9 +249,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,61 +258,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,187 +273,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,49 +468,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,17 +506,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,152 +569,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,14 +730,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1152,10 +1152,10 @@
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="8">
         <v>0.458333333333333</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="8">
         <v>0.479166666666667</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -1228,13 +1228,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="2" max="2" width="12.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
@@ -1272,67 +1272,45 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="100.8" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2">
-        <v>13840289729</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
+    <row r="2" s="2" customFormat="1" ht="144" spans="1:12">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>18513687308</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
       </c>
       <c r="F2" s="5">
-        <v>0.458333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G2" s="5">
-        <v>0.479166666666667</v>
+        <v>0.680555555555556</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>18513687308</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I2:L2"/>
+  </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
-      <formula1>$J$9</formula1>
+      <formula1>$J$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\httpsgithub.comglc6661607B.git\1607B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\内网通\专高3\git\1607B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AADA523-44D1-40E6-83CA-3191BF91DDA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E23A1C-AF27-4FAB-88C6-D1179970881E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21756" windowHeight="8484" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
     <sheet name="2019-05-21" sheetId="1" r:id="rId2"/>
     <sheet name="2019-05-22" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="2019-05-23" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
   <si>
     <t>姓名</t>
   </si>
@@ -176,6 +176,44 @@
 4.nginx负载均衡的方式
 总结</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘永磊</t>
+  </si>
+  <si>
+    <t>中能瑞通</t>
+  </si>
+  <si>
+    <t>北京市昌平区龙域北街金域国际中心A座19层</t>
+  </si>
+  <si>
+    <t>亿寻科技</t>
+  </si>
+  <si>
+    <t>王女士</t>
+  </si>
+  <si>
+    <t>北京市海淀区蓝靛厂东路2号
+金源时代商务中心B座6层2-6A</t>
+  </si>
+  <si>
+    <t>17：:00</t>
+  </si>
+  <si>
+    <t>谈项目</t>
+  </si>
+  <si>
+    <t>东华软件</t>
+  </si>
+  <si>
+    <t>张小姐</t>
+  </si>
+  <si>
+    <t>北京市海淀区知春路紫金数码园
+3号楼东华合创大厦11层1101室</t>
+  </si>
+  <si>
+    <t>做题</t>
   </si>
 </sst>
 </file>
@@ -236,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -269,6 +307,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,20 +619,20 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="12.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" style="4" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="56.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="4" customWidth="1"/>
+    <col min="6" max="7" width="14.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="56.75" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -620,7 +661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -663,16 +704,16 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="5.75" customWidth="1"/>
+    <col min="6" max="7" width="14.625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,23 +751,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" customWidth="1"/>
-    <col min="8" max="8" width="54.21875" customWidth="1"/>
-    <col min="9" max="9" width="56.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="28.125" customWidth="1"/>
+    <col min="8" max="8" width="54.25" customWidth="1"/>
+    <col min="9" max="9" width="56.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -784,7 +825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -792,7 +833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -812,7 +853,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -835,7 +876,7 @@
         <v>0.45833333333333298</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -855,7 +896,7 @@
         <v>0.41666666666666702</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -878,7 +919,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -898,7 +939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>43</v>
       </c>
@@ -924,7 +965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>44</v>
       </c>
@@ -948,6 +989,58 @@
       </c>
       <c r="H10" s="9" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>15733607631</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>15733607632</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -964,18 +1057,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1013,6 +1106,23 @@
       </c>
       <c r="C2" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>15733607633</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="7">
+        <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>

--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\httpsgithub.comglc6661607B.git\1607B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shao\Desktop\111\1607B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1B2311-AB07-4098-820B-60643B91145D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
     <sheet name="2019-05-21" sheetId="1" r:id="rId2"/>
     <sheet name="2019-05-22" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="2019-05-23" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
   <si>
     <t>姓名</t>
   </si>
@@ -196,11 +195,26 @@
 Java基本数据类型?Integer和int的关系?Integer和int的默认值?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>邵帅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛唐科技</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>马晓峰  15801608715</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市石景山区京原路7号东方地球物理大厦5号楼13层</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,9 +301,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -297,6 +308,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,7 +613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -684,7 +698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -737,11 +751,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -807,14 +821,14 @@
       <c r="H2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -836,7 +850,7 @@
       <c r="G3" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
@@ -1010,19 +1024,19 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="144" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B12">
         <v>17810208419</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="5">
@@ -1031,7 +1045,7 @@
       <c r="G12" s="5">
         <v>0.63194444444444442</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1041,7 +1055,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -1051,14 +1065,84 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="52" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>15710072410</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+      <formula1>$J$8</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>

--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -1,28 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shao\Desktop\111\1607B\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348" activeTab="2"/>
+    <workbookView windowWidth="19155" windowHeight="10845" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
     <sheet name="2019-05-21" sheetId="1" r:id="rId2"/>
     <sheet name="2019-05-22" sheetId="2" r:id="rId3"/>
     <sheet name="2019-05-23" sheetId="3" r:id="rId4"/>
+    <sheet name="2019-05-24" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
   <si>
     <t>姓名</t>
   </si>
@@ -171,20 +167,16 @@
   </si>
   <si>
     <t>李小朋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>风扬天顺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>高萌萌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 北京海淀区国际创业园2号楼东区2号楼15E</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>如何让map集合变为有序的?
@@ -193,29 +185,40 @@
 final,finally的区别?
 什么是线程安全?为什么安全?
 Java基本数据类型?Integer和int的关系?Integer和int的默认值?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>邵帅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>盛唐科技</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>马晓峰  15801608715</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>北京市石景山区京原路7号东方地球物理大厦5号楼13层</t>
+  </si>
+  <si>
+    <t>文思海辉</t>
+  </si>
+  <si>
+    <t>王锦轩  13121921850</t>
+  </si>
+  <si>
+    <t>北京市东城区东长安街东方广场C1楼</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,36 +235,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -269,9 +588,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -279,51 +840,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -608,195 +1213,197 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="56.77734375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="12.775" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.6666666666667" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.4416666666667" style="5" customWidth="1"/>
+    <col min="5" max="5" width="26.8833333333333" style="5" customWidth="1"/>
+    <col min="6" max="7" width="14.6666666666667" style="5" customWidth="1"/>
+    <col min="8" max="8" width="23.6666666666667" style="5" customWidth="1"/>
+    <col min="9" max="9" width="56.775" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="94.5" spans="1:9">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>13840289729</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0.47916666666666702</v>
+      <c r="F2" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.479166666666667</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.4416666666667" customWidth="1"/>
+    <col min="5" max="5" width="5.775" customWidth="1"/>
+    <col min="6" max="7" width="14.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.775" customWidth="1"/>
+    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.4416666666667" customWidth="1"/>
+    <col min="5" max="5" width="28.1083333333333" customWidth="1"/>
+    <col min="8" max="8" width="26.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.25">
+    <row r="2" s="5" customFormat="1" ht="135" spans="1:12">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -812,23 +1419,23 @@
       <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.68055555555555602</v>
+      <c r="F2" s="4">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.680555555555556</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:12" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="3" ht="94.5" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -844,20 +1451,20 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="4">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -865,7 +1472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -881,11 +1488,11 @@
       <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5">
-        <v>0.66666666666666663</v>
+      <c r="F5" s="4">
+        <v>0.666666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -901,14 +1508,14 @@
       <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.45833333333333331</v>
+      <c r="F6" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.458333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -924,11 +1531,11 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="5">
-        <v>0.41666666666666669</v>
+      <c r="F7" s="4">
+        <v>0.416666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -944,14 +1551,14 @@
       <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="5">
-        <v>0.41666666666666669</v>
+      <c r="F8" s="4">
+        <v>0.416666666666667</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -964,14 +1571,14 @@
       <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="5">
-        <v>0.58333333333333337</v>
+      <c r="F9" s="4">
+        <v>0.583333333333333</v>
       </c>
       <c r="H9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -987,17 +1594,17 @@
       <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="5">
-        <v>0.65972222222222221</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="4">
+        <v>0.659722222222222</v>
+      </c>
+      <c r="G10" s="4">
         <v>0.6875</v>
       </c>
       <c r="H10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1013,39 +1620,39 @@
       <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="5">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.67361111111111116</v>
+      <c r="F11" s="4">
+        <v>0.638888888888889</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.673611111111111</v>
       </c>
       <c r="H11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="144" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" ht="121.5" spans="1:8">
+      <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B12">
         <v>17810208419</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="5">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="H12" s="10" t="s">
+      <c r="F12" s="4">
+        <v>0.611111111111111</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.631944444444444</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1053,91 +1660,6 @@
   <mergeCells count="1">
     <mergeCell ref="I2:L2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
-      <formula1>$J$8</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="52" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2">
-        <v>15710072410</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.47222222222222227</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$8</formula1>
@@ -1145,5 +1667,173 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="2" max="2" width="12.775" customWidth="1"/>
+    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="24.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="52" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="17.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="15.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="11.5583333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>15710072410</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.451388888888889</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.472222222222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+      <formula1>$J$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="40.375" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>15710072410</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.451388888888889</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.472222222222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+      <formula1>$J$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\1607ddd\1607B\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19155" windowHeight="10845" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="10845" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
   <si>
     <t>姓名</t>
   </si>
@@ -207,18 +212,28 @@
   <si>
     <t>北京市东城区东长安街东方广场C1楼</t>
   </si>
+  <si>
+    <t>王坤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>南北软件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任小慧 010-82364585</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京海淀区学院路30号科大天工大厦A座11层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,345 +257,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -588,251 +279,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -867,68 +316,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1213,32 +618,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="12.775" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.6666666666667" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.4416666666667" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.8833333333333" style="5" customWidth="1"/>
-    <col min="6" max="7" width="14.6666666666667" style="5" customWidth="1"/>
-    <col min="8" max="8" width="23.6666666666667" style="5" customWidth="1"/>
-    <col min="9" max="9" width="56.775" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="5" customWidth="1"/>
+    <col min="6" max="7" width="14.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="23.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="56.75" style="5" customWidth="1"/>
     <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="94.5" spans="1:9">
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1283,11 +688,11 @@
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="11">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0.479166666666667</v>
+      <c r="F2" s="10">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.47916666666666702</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>13</v>
@@ -1297,30 +702,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.4416666666667" customWidth="1"/>
-    <col min="5" max="5" width="5.775" customWidth="1"/>
-    <col min="6" max="7" width="14.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="5.75" customWidth="1"/>
+    <col min="6" max="7" width="14.625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1350,31 +754,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.775" customWidth="1"/>
-    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="12.4416666666667" customWidth="1"/>
-    <col min="5" max="5" width="28.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="26.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="28.125" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:9">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="135" spans="1:12">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1420,22 +823,22 @@
         <v>19</v>
       </c>
       <c r="F2" s="4">
-        <v>0.666666666666667</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="G2" s="4">
-        <v>0.680555555555556</v>
+        <v>0.68055555555555602</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" ht="94.5" spans="1:9">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1452,10 +855,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="4">
-        <v>0.458333333333333</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="G3" s="4">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>13</v>
@@ -1464,7 +867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1472,7 +875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1489,10 +892,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="4">
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1509,13 +912,13 @@
         <v>26</v>
       </c>
       <c r="F6" s="4">
-        <v>0.416666666666667</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="G6" s="4">
-        <v>0.458333333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.45833333333333298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1532,10 +935,10 @@
         <v>30</v>
       </c>
       <c r="F7" s="4">
-        <v>0.416666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1552,13 +955,13 @@
         <v>34</v>
       </c>
       <c r="F8" s="4">
-        <v>0.416666666666667</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1572,13 +975,13 @@
         <v>37</v>
       </c>
       <c r="F9" s="4">
-        <v>0.583333333333333</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="H9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1595,7 +998,7 @@
         <v>42</v>
       </c>
       <c r="F10" s="4">
-        <v>0.659722222222222</v>
+        <v>0.65972222222222199</v>
       </c>
       <c r="G10" s="4">
         <v>0.6875</v>
@@ -1604,7 +1007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1621,16 +1024,16 @@
         <v>42</v>
       </c>
       <c r="F11" s="4">
-        <v>0.638888888888889</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="G11" s="4">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="H11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" ht="121.5" spans="1:8">
+    <row r="12" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
@@ -1647,10 +1050,10 @@
         <v>49</v>
       </c>
       <c r="F12" s="4">
-        <v>0.611111111111111</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="G12" s="4">
-        <v>0.631944444444444</v>
+        <v>0.63194444444444398</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>50</v>
@@ -1660,6 +1063,7 @@
   <mergeCells count="1">
     <mergeCell ref="I2:L2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$8</formula1>
@@ -1667,32 +1071,30 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I2"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.775" customWidth="1"/>
-    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="24.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
     <col min="5" max="5" width="52" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="17.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="15.4416666666667" customWidth="1"/>
-    <col min="9" max="9" width="11.5583333333333" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1721,7 +1123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1738,13 +1140,14 @@
         <v>54</v>
       </c>
       <c r="F2" s="4">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G2" s="4">
-        <v>0.472222222222222</v>
+        <v>0.47222222222222199</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$8</formula1>
@@ -1752,20 +1155,18 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="20.125" customWidth="1"/>
@@ -1775,7 +1176,7 @@
     <col min="6" max="6" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1804,7 +1205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1821,19 +1222,40 @@
         <v>57</v>
       </c>
       <c r="F2" s="4">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G2" s="4">
-        <v>0.472222222222222</v>
-      </c>
+        <v>0.47222222222222199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>15192189637</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G3" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\1607ddd\1607B\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="10845" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12465" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
   <si>
     <t>姓名</t>
   </si>
@@ -214,26 +209,75 @@
   </si>
   <si>
     <t>王坤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>南北软件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>任小慧 010-82364585</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>北京海淀区学院路30号科大天工大厦A座11层</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>温树山</t>
+  </si>
+  <si>
+    <t>大连华信</t>
+  </si>
+  <si>
+    <t>海淀区用友软件园东区20号楼</t>
+  </si>
+  <si>
+    <t>1.什么是事务
+2.写一个单例
+3.消息中间件的运行过程
+4.权限管理
+5.数据库的主键和外键的使用</t>
+  </si>
+  <si>
+    <t>北京英视睿达科技有限公司</t>
+  </si>
+  <si>
+    <t>宋晓媛</t>
+  </si>
+  <si>
+    <t>丰台区丰台科技园华夏幸福创新中心6层</t>
+  </si>
+  <si>
+    <t>1.dubbo+zookeeper的运行原理和dubbo的负载均衡策略
+2.集群的搭建
+3.mysql的三大范式
+4.mysql.oracle.mongodb三个数据库的优缺点，有什么不同
+5.redis的数据类型和存储的方式</t>
+  </si>
+  <si>
+    <t>易融</t>
+  </si>
+  <si>
+    <t>知春路</t>
+  </si>
+  <si>
+    <t>1.Linux的常用命令
+2.使用dubbo+zookeeper干了什么事情
+3.jdk1.8的新特性和具体在项目中的使用
+4.对数据库的优化
+5.对sql语句的优化
+6rabbitMQ是怎么使用的，在哪里使用rabbitMQ，是怎么样的运行过程
+7.nginx的负载均衡和其他核心功能</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,28 +294,345 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -279,9 +640,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -302,38 +905,82 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -618,32 +1265,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="5" customWidth="1"/>
-    <col min="6" max="7" width="14.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="23.625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="56.75" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="12.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="7" customWidth="1"/>
+    <col min="6" max="7" width="14.625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="23.625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="56.75" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -672,50 +1319,51 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="94.5" spans="1:9">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>13840289729</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0.47916666666666702</v>
+      <c r="F2" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.479166666666667</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
@@ -724,7 +1372,7 @@
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="3" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,21 +1402,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="22.625" customWidth="1"/>
@@ -777,7 +1426,7 @@
     <col min="8" max="8" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="3" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,7 +1455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.15">
+    <row r="2" s="7" customFormat="1" ht="135" spans="1:12">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -823,22 +1472,22 @@
         <v>19</v>
       </c>
       <c r="F2" s="4">
-        <v>0.66666666666666696</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G2" s="4">
-        <v>0.68055555555555602</v>
+        <v>0.680555555555556</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" ht="94.5" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -855,19 +1504,19 @@
         <v>12</v>
       </c>
       <c r="F3" s="4">
-        <v>0.45833333333333298</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="G3" s="4">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="H3" s="7" t="s">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -875,7 +1524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -892,10 +1541,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="4">
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -912,13 +1561,13 @@
         <v>26</v>
       </c>
       <c r="F6" s="4">
-        <v>0.41666666666666702</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="G6" s="4">
-        <v>0.45833333333333298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.458333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -935,10 +1584,10 @@
         <v>30</v>
       </c>
       <c r="F7" s="4">
-        <v>0.41666666666666702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.416666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -955,13 +1604,13 @@
         <v>34</v>
       </c>
       <c r="F8" s="4">
-        <v>0.41666666666666702</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -975,13 +1624,13 @@
         <v>37</v>
       </c>
       <c r="F9" s="4">
-        <v>0.58333333333333304</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -998,7 +1647,7 @@
         <v>42</v>
       </c>
       <c r="F10" s="4">
-        <v>0.65972222222222199</v>
+        <v>0.659722222222222</v>
       </c>
       <c r="G10" s="4">
         <v>0.6875</v>
@@ -1007,7 +1656,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1024,16 +1673,16 @@
         <v>42</v>
       </c>
       <c r="F11" s="4">
-        <v>0.63888888888888895</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="G11" s="4">
-        <v>0.67361111111111105</v>
+        <v>0.673611111111111</v>
       </c>
       <c r="H11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="12" ht="121.5" spans="1:8">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
@@ -1050,10 +1699,10 @@
         <v>49</v>
       </c>
       <c r="F12" s="4">
-        <v>0.61111111111111105</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="G12" s="4">
-        <v>0.63194444444444398</v>
+        <v>0.631944444444444</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>50</v>
@@ -1063,7 +1712,6 @@
   <mergeCells count="1">
     <mergeCell ref="I2:L2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$8</formula1>
@@ -1071,18 +1719,20 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="A1" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
@@ -1094,7 +1744,7 @@
     <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1140,14 +1790,13 @@
         <v>54</v>
       </c>
       <c r="F2" s="4">
-        <v>0.45138888888888901</v>
+        <v>0.451388888888889</v>
       </c>
       <c r="G2" s="4">
-        <v>0.47222222222222199</v>
+        <v>0.472222222222222</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$8</formula1>
@@ -1155,18 +1804,20 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="20.125" customWidth="1"/>
@@ -1174,9 +1825,10 @@
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="40.375" customWidth="1"/>
     <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="63.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1205,7 +1857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1222,13 +1874,13 @@
         <v>57</v>
       </c>
       <c r="F2" s="4">
-        <v>0.45138888888888901</v>
+        <v>0.451388888888889</v>
       </c>
       <c r="G2" s="4">
-        <v>0.47222222222222199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0.472222222222222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1245,17 +1897,83 @@
         <v>61</v>
       </c>
       <c r="F3" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="G3" s="4"/>
     </row>
+    <row r="4" ht="67.5" spans="1:8">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4">
+        <v>17621074641</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" ht="96" customHeight="1" spans="1:8">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>17621074641</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" ht="120" customHeight="1" spans="1:8">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>17621074641</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.489583333333333</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\123\1607B\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
@@ -270,14 +275,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,345 +293,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -640,251 +315,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -919,68 +352,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1265,19 +654,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="12.75" style="7" customWidth="1"/>
@@ -1290,7 +679,7 @@
     <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="94.5" spans="1:9">
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -1335,11 +724,11 @@
       <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="11">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0.479166666666667</v>
+      <c r="F2" s="10">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.47916666666666702</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>13</v>
@@ -1349,21 +738,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
@@ -1372,7 +760,7 @@
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1402,22 +790,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="22.625" customWidth="1"/>
@@ -1426,7 +813,7 @@
     <col min="8" max="8" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:9">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" ht="135" spans="1:12">
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1472,22 +859,22 @@
         <v>19</v>
       </c>
       <c r="F2" s="4">
-        <v>0.666666666666667</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="G2" s="4">
-        <v>0.680555555555556</v>
+        <v>0.68055555555555602</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" ht="94.5" spans="1:9">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1504,10 +891,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="4">
-        <v>0.458333333333333</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="G3" s="4">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>13</v>
@@ -1516,7 +903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1524,7 +911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1541,10 +928,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="4">
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1561,13 +948,13 @@
         <v>26</v>
       </c>
       <c r="F6" s="4">
-        <v>0.416666666666667</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="G6" s="4">
-        <v>0.458333333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.45833333333333298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1584,10 +971,10 @@
         <v>30</v>
       </c>
       <c r="F7" s="4">
-        <v>0.416666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1604,13 +991,13 @@
         <v>34</v>
       </c>
       <c r="F8" s="4">
-        <v>0.416666666666667</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1624,13 +1011,13 @@
         <v>37</v>
       </c>
       <c r="F9" s="4">
-        <v>0.583333333333333</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="H9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1647,7 +1034,7 @@
         <v>42</v>
       </c>
       <c r="F10" s="4">
-        <v>0.659722222222222</v>
+        <v>0.65972222222222199</v>
       </c>
       <c r="G10" s="4">
         <v>0.6875</v>
@@ -1656,7 +1043,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1673,16 +1060,16 @@
         <v>42</v>
       </c>
       <c r="F11" s="4">
-        <v>0.638888888888889</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="G11" s="4">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="H11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" ht="121.5" spans="1:8">
+    <row r="12" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
@@ -1699,10 +1086,10 @@
         <v>49</v>
       </c>
       <c r="F12" s="4">
-        <v>0.611111111111111</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="G12" s="4">
-        <v>0.631944444444444</v>
+        <v>0.63194444444444398</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>50</v>
@@ -1712,6 +1099,7 @@
   <mergeCells count="1">
     <mergeCell ref="I2:L2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$8</formula1>
@@ -1719,20 +1107,18 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I2"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
@@ -1744,7 +1130,7 @@
     <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1773,7 +1159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1790,13 +1176,14 @@
         <v>54</v>
       </c>
       <c r="F2" s="4">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G2" s="4">
-        <v>0.472222222222222</v>
+        <v>0.47222222222222199</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$8</formula1>
@@ -1804,20 +1191,18 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="20.125" customWidth="1"/>
@@ -1828,7 +1213,7 @@
     <col min="8" max="8" width="63.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1857,7 +1242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1874,13 +1259,13 @@
         <v>57</v>
       </c>
       <c r="F2" s="4">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G2" s="4">
-        <v>0.472222222222222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.47222222222222199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1897,11 +1282,11 @@
         <v>61</v>
       </c>
       <c r="F3" s="4">
-        <v>0.416666666666667</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" ht="67.5" spans="1:8">
+    <row r="4" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -1918,7 +1303,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" ht="96" customHeight="1" spans="1:8">
+    <row r="5" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1944,7 +1329,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" ht="120" customHeight="1" spans="1:8">
+    <row r="6" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -1958,22 +1343,27 @@
         <v>71</v>
       </c>
       <c r="F6" s="4">
-        <v>0.458333333333333</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="G6" s="4">
-        <v>0.489583333333333</v>
+        <v>0.48958333333333298</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>72</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>123444</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\123\1607B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\1607B\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C791FF0E-DFAF-4BC3-969E-FED8507106C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="5565" yWindow="-15" windowWidth="21960" windowHeight="14310" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
@@ -275,7 +276,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -659,7 +660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -744,7 +745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -797,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1101,7 +1102,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$J$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -1111,7 +1112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -1185,7 +1186,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$J$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -1195,11 +1196,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1354,13 +1355,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>123444</v>
+        <v>1123444</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>$J$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\1607B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\1607ddd\1607B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C791FF0E-DFAF-4BC3-969E-FED8507106C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="-15" windowWidth="21960" windowHeight="14310" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5565" yWindow="-15" windowWidth="21960" windowHeight="14310" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
@@ -18,13 +17,14 @@
     <sheet name="2019-05-22" sheetId="2" r:id="rId3"/>
     <sheet name="2019-05-23" sheetId="3" r:id="rId4"/>
     <sheet name="2019-05-24" sheetId="5" r:id="rId5"/>
+    <sheet name="2019-05-29" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
   <si>
     <t>姓名</t>
   </si>
@@ -272,11 +272,21 @@
 6rabbitMQ是怎么使用的，在哪里使用rabbitMQ，是怎么样的运行过程
 7.nginx的负载均衡和其他核心功能</t>
   </si>
+  <si>
+    <t>国网信通亿力科技信息技术有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄经理15985799806</t>
+  </si>
+  <si>
+    <t>北京西城区北新华街29号昌盛大厦</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -660,7 +670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -745,7 +755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -798,7 +808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1102,7 +1112,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -1112,7 +1122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -1186,7 +1196,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -1196,11 +1206,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1361,10 +1371,87 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="46.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>15192189637</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+      <formula1>$J$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\1607ddd\1607B\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="-15" windowWidth="21960" windowHeight="14310" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="21563" windowHeight="8015" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
   <si>
     <t>姓名</t>
   </si>
@@ -274,20 +269,34 @@
   </si>
   <si>
     <t>国网信通亿力科技信息技术有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>黄经理15985799806</t>
   </si>
   <si>
     <t>北京西城区北新华街29号昌盛大厦</t>
+  </si>
+  <si>
+    <t>新晨阳光科技</t>
+  </si>
+  <si>
+    <t>北京市海淀区苏州街大恒科技大厦北座901</t>
+  </si>
+  <si>
+    <t>mysql和orcle的区别，你的项目中在哪用到了Redis，dubbox和zookeeper，权限的分配</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,21 +313,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -326,9 +659,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -363,24 +938,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -665,32 +1284,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="12.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.6296296296296" style="7" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="7" customWidth="1"/>
-    <col min="6" max="7" width="14.625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="23.625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="26.8796296296296" style="7" customWidth="1"/>
+    <col min="6" max="7" width="14.6296296296296" style="7" customWidth="1"/>
+    <col min="8" max="8" width="23.6296296296296" style="7" customWidth="1"/>
     <col min="9" max="9" width="56.75" style="7" customWidth="1"/>
     <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -719,7 +1338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="2" ht="115.2" spans="1:9">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -735,11 +1354,11 @@
       <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0.47916666666666702</v>
+      <c r="F2" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.479166666666667</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>13</v>
@@ -749,29 +1368,30 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="5.75" customWidth="1"/>
-    <col min="6" max="7" width="14.625" customWidth="1"/>
+    <col min="6" max="7" width="14.6296296296296" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="3" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,30 +1421,31 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="22.6296296296296" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="28.125" customWidth="1"/>
+    <col min="5" max="5" width="28.1296296296296" customWidth="1"/>
     <col min="8" max="8" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="3" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -853,7 +1474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.15">
+    <row r="2" s="7" customFormat="1" ht="144" spans="1:12">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -870,22 +1491,22 @@
         <v>19</v>
       </c>
       <c r="F2" s="4">
-        <v>0.66666666666666696</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G2" s="4">
-        <v>0.68055555555555602</v>
+        <v>0.680555555555556</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" ht="100.8" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -902,10 +1523,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="4">
-        <v>0.45833333333333298</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="G3" s="4">
-        <v>0.47916666666666702</v>
+        <v>0.479166666666667</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>13</v>
@@ -914,7 +1535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -922,7 +1543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -939,10 +1560,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="4">
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -959,13 +1580,13 @@
         <v>26</v>
       </c>
       <c r="F6" s="4">
-        <v>0.41666666666666702</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="G6" s="4">
-        <v>0.45833333333333298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.458333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -982,10 +1603,10 @@
         <v>30</v>
       </c>
       <c r="F7" s="4">
-        <v>0.41666666666666702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.416666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1002,13 +1623,13 @@
         <v>34</v>
       </c>
       <c r="F8" s="4">
-        <v>0.41666666666666702</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1022,13 +1643,13 @@
         <v>37</v>
       </c>
       <c r="F9" s="4">
-        <v>0.58333333333333304</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1045,7 +1666,7 @@
         <v>42</v>
       </c>
       <c r="F10" s="4">
-        <v>0.65972222222222199</v>
+        <v>0.659722222222222</v>
       </c>
       <c r="G10" s="4">
         <v>0.6875</v>
@@ -1054,7 +1675,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1071,16 +1692,16 @@
         <v>42</v>
       </c>
       <c r="F11" s="4">
-        <v>0.63888888888888895</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="G11" s="4">
-        <v>0.67361111111111105</v>
+        <v>0.673611111111111</v>
       </c>
       <c r="H11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="12" ht="144" spans="1:8">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
@@ -1097,10 +1718,10 @@
         <v>49</v>
       </c>
       <c r="F12" s="4">
-        <v>0.61111111111111105</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="G12" s="4">
-        <v>0.63194444444444398</v>
+        <v>0.631944444444444</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>50</v>
@@ -1110,7 +1731,6 @@
   <mergeCells count="1">
     <mergeCell ref="I2:L2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$8</formula1>
@@ -1118,22 +1738,24 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="A1" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="12.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="24.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="52" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
@@ -1141,7 +1763,7 @@
     <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1187,14 +1809,13 @@
         <v>54</v>
       </c>
       <c r="F2" s="4">
-        <v>0.45138888888888901</v>
+        <v>0.451388888888889</v>
       </c>
       <c r="G2" s="4">
-        <v>0.47222222222222199</v>
+        <v>0.472222222222222</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$8</formula1>
@@ -1202,29 +1823,31 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I3"/>
+      <selection activeCell="A1" sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="20.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="14.6296296296296" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="40.375" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="8" max="8" width="63.375" customWidth="1"/>
+    <col min="5" max="5" width="40.3796296296296" customWidth="1"/>
+    <col min="6" max="6" width="13.6296296296296" customWidth="1"/>
+    <col min="8" max="8" width="63.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1253,7 +1876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1270,13 +1893,13 @@
         <v>57</v>
       </c>
       <c r="F2" s="4">
-        <v>0.45138888888888901</v>
+        <v>0.451388888888889</v>
       </c>
       <c r="G2" s="4">
-        <v>0.47222222222222199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0.472222222222222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1293,11 +1916,11 @@
         <v>61</v>
       </c>
       <c r="F3" s="4">
-        <v>0.41666666666666702</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="4" ht="72" spans="1:8">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -1314,7 +1937,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="96" customHeight="1" spans="1:8">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1340,7 +1963,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="120" customHeight="1" spans="1:8">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -1354,48 +1977,49 @@
         <v>71</v>
       </c>
       <c r="F6" s="4">
-        <v>0.45833333333333298</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="G6" s="4">
-        <v>0.48958333333333298</v>
+        <v>0.489583333333333</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7">
         <v>1123444</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="14.1296296296296" customWidth="1"/>
     <col min="3" max="3" width="31.5" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="46.375" customWidth="1"/>
+    <col min="4" max="4" width="20.3796296296296" customWidth="1"/>
+    <col min="5" max="5" width="46.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +2048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1441,17 +2065,37 @@
         <v>75</v>
       </c>
       <c r="F2" s="4">
-        <v>0.41666666666666702</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="G2" s="4"/>
     </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>15901476096</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3">
+        <v>18911513228</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$J$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21563" windowHeight="8015" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12465" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="83">
   <si>
     <t>姓名</t>
   </si>
@@ -284,6 +284,18 @@
   </si>
   <si>
     <t>mysql和orcle的区别，你的项目中在哪用到了Redis，dubbox和zookeeper，权限的分配</t>
+  </si>
+  <si>
+    <t>郭家宝</t>
+  </si>
+  <si>
+    <t>中科软股份有限公司</t>
+  </si>
+  <si>
+    <t>北京市海淀区中关村新科祥园甲6号中科软商务楼</t>
+  </si>
+  <si>
+    <t>mysql性能优化,linux常用命令,redis项目中运用</t>
   </si>
 </sst>
 </file>
@@ -293,8 +305,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -314,24 +326,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,14 +347,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,7 +370,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,17 +385,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,6 +407,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -410,22 +422,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -441,21 +453,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -466,31 +478,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,13 +604,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,133 +652,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,67 +675,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,6 +697,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -757,6 +725,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -765,10 +777,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -777,133 +789,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1296,15 +1308,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="12.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.6296296296296" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.6333333333333" style="7" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="26.8796296296296" style="7" customWidth="1"/>
-    <col min="6" max="7" width="14.6296296296296" style="7" customWidth="1"/>
-    <col min="8" max="8" width="23.6296296296296" style="7" customWidth="1"/>
+    <col min="5" max="5" width="26.8833333333333" style="7" customWidth="1"/>
+    <col min="6" max="7" width="14.6333333333333" style="7" customWidth="1"/>
+    <col min="8" max="8" width="23.6333333333333" style="7" customWidth="1"/>
     <col min="9" max="9" width="56.75" style="7" customWidth="1"/>
     <col min="10" max="16384" width="9" style="7"/>
   </cols>
@@ -1338,7 +1350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="115.2" spans="1:9">
+    <row r="2" ht="94.5" spans="1:9">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -1382,12 +1394,12 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="5.75" customWidth="1"/>
-    <col min="6" max="7" width="14.6296296296296" customWidth="1"/>
+    <col min="6" max="7" width="14.6333333333333" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1436,12 +1448,12 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="22.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="22.6333333333333" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="28.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="28.1333333333333" customWidth="1"/>
     <col min="8" max="8" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1474,7 +1486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" ht="144" spans="1:12">
+    <row r="2" s="7" customFormat="1" ht="135" spans="1:12">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1506,7 +1518,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" ht="100.8" spans="1:9">
+    <row r="3" ht="94.5" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1701,7 +1713,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" ht="144" spans="1:8">
+    <row r="12" ht="121.5" spans="1:8">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
@@ -1751,11 +1763,11 @@
       <selection activeCell="A1" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="12.3796296296296" customWidth="1"/>
-    <col min="4" max="4" width="24.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="12.3833333333333" customWidth="1"/>
+    <col min="4" max="4" width="24.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="52" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
@@ -1836,15 +1848,15 @@
       <selection activeCell="A1" sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="20.1296296296296" customWidth="1"/>
-    <col min="3" max="3" width="14.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="20.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.6333333333333" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="40.3796296296296" customWidth="1"/>
-    <col min="6" max="6" width="13.6296296296296" customWidth="1"/>
-    <col min="8" max="8" width="63.3796296296296" customWidth="1"/>
+    <col min="5" max="5" width="40.3833333333333" customWidth="1"/>
+    <col min="6" max="6" width="13.6333333333333" customWidth="1"/>
+    <col min="8" max="8" width="63.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1920,7 +1932,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" ht="72" spans="1:8">
+    <row r="4" ht="67.5" spans="1:8">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -2005,18 +2017,18 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="14.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="14.1333333333333" customWidth="1"/>
     <col min="3" max="3" width="31.5" customWidth="1"/>
-    <col min="4" max="4" width="20.3796296296296" customWidth="1"/>
-    <col min="5" max="5" width="46.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="20.3833333333333" customWidth="1"/>
+    <col min="5" max="5" width="46.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2087,6 +2099,29 @@
       </c>
       <c r="H3" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4">
+        <v>18810602856</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.46875</v>
+      </c>
+      <c r="H4" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/1607B面试记录表.xlsx
+++ b/1607B面试记录表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\1607B\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CAF2A5-6874-4662-B2C1-981D740B57C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-05-20" sheetId="4" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="89">
   <si>
     <t>姓名</t>
   </si>
@@ -297,18 +303,51 @@
   <si>
     <t>mysql性能优化,linux常用命令,redis项目中运用</t>
   </si>
+  <si>
+    <t>宋钰珂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrendBank势银</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘女士15825592761</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Java的基础数据类型
+Java的特性
+Java的三大特征
+Java重写重载的区别
+Java的引用数据类型
+String属于什么数据类型，可以被继承吗
+线程的创建方式，线程池有哪几种
+死锁是什么
+数据库的基础操作里面都有什么
+单例模式的最常用两种实现方式，他们的区别
+list和hashmap的区别
+linkdlist和arraylist的区别
+登录的实现方式，在CAS服务端里面如何存储session
+zookeeper做集群最少需要几个节点，为什么
+如果zookeeper挂掉了，服务还能调用吗
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市朝阳区傲城融富中心B座1307</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,345 +364,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -671,255 +386,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -950,68 +423,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1296,32 +728,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="12.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.6333333333333" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="7" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="26.8833333333333" style="7" customWidth="1"/>
-    <col min="6" max="7" width="14.6333333333333" style="7" customWidth="1"/>
-    <col min="8" max="8" width="23.6333333333333" style="7" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="7" customWidth="1"/>
+    <col min="6" max="7" width="14.625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="23.625" style="7" customWidth="1"/>
     <col min="9" max="9" width="56.75" style="7" customWidth="1"/>
     <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="94.5" spans="1:9">
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -1366,11 +798,11 @@
       <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="11">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0.479166666666667</v>
+      <c r="F2" s="10">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.47916666666666702</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>13</v>
@@ -1380,30 +812,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="5.75" customWidth="1"/>
-    <col min="6" max="7" width="14.6333333333333" customWidth="1"/>
+    <col min="6" max="7" width="14.625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1433,31 +864,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="22.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="28.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="28.125" customWidth="1"/>
     <col min="8" max="8" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:9">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" ht="135" spans="1:12">
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1503,22 +933,22 @@
         <v>19</v>
       </c>
       <c r="F2" s="4">
-        <v>0.666666666666667</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="G2" s="4">
-        <v>0.680555555555556</v>
+        <v>0.68055555555555602</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" ht="94.5" spans="1:9">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1535,10 +965,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="4">
-        <v>0.458333333333333</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="G3" s="4">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>13</v>
@@ -1547,7 +977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1555,7 +985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1572,10 +1002,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="4">
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1592,13 +1022,13 @@
         <v>26</v>
       </c>
       <c r="F6" s="4">
-        <v>0.416666666666667</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="G6" s="4">
-        <v>0.458333333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.45833333333333298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1615,10 +1045,10 @@
         <v>30</v>
       </c>
       <c r="F7" s="4">
-        <v>0.416666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1635,13 +1065,13 @@
         <v>34</v>
       </c>
       <c r="F8" s="4">
-        <v>0.416666666666667</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1655,13 +1085,13 @@
         <v>37</v>
       </c>
       <c r="F9" s="4">
-        <v>0.583333333333333</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="H9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1678,7 +1108,7 @@
         <v>42</v>
       </c>
       <c r="F10" s="4">
-        <v>0.659722222222222</v>
+        <v>0.65972222222222199</v>
       </c>
       <c r="G10" s="4">
         <v>0.6875</v>
@@ -1687,7 +1117,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1704,16 +1134,16 @@
         <v>42</v>
       </c>
       <c r="F11" s="4">
-        <v>0.638888888888889</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="G11" s="4">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="H11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" ht="121.5" spans="1:8">
+    <row r="12" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
@@ -1730,10 +1160,10 @@
         <v>49</v>
       </c>
       <c r="F12" s="4">
-        <v>0.611111111111111</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="G12" s="4">
-        <v>0.631944444444444</v>
+        <v>0.63194444444444398</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>50</v>
@@ -1743,31 +1173,30 @@
   <mergeCells count="1">
     <mergeCell ref="I2:L2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$J$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I2"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="12.3833333333333" customWidth="1"/>
-    <col min="4" max="4" width="24.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
     <col min="5" max="5" width="52" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
@@ -1775,7 +1204,7 @@
     <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1804,7 +1233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1821,45 +1250,44 @@
         <v>54</v>
       </c>
       <c r="F2" s="4">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G2" s="4">
-        <v>0.472222222222222</v>
+        <v>0.47222222222222199</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$J$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I3"/>
+      <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="20.1333333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="40.3833333333333" customWidth="1"/>
-    <col min="6" max="6" width="13.6333333333333" customWidth="1"/>
-    <col min="8" max="8" width="63.3833333333333" customWidth="1"/>
+    <col min="5" max="5" width="40.375" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="63.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1888,7 +1316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1905,13 +1333,13 @@
         <v>57</v>
       </c>
       <c r="F2" s="4">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G2" s="4">
-        <v>0.472222222222222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.47222222222222199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1928,11 +1356,11 @@
         <v>61</v>
       </c>
       <c r="F3" s="4">
-        <v>0.416666666666667</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" ht="67.5" spans="1:8">
+    <row r="4" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -1949,7 +1377,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" ht="96" customHeight="1" spans="1:8">
+    <row r="5" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1975,7 +1403,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" ht="120" customHeight="1" spans="1:8">
+    <row r="6" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -1989,49 +1417,50 @@
         <v>71</v>
       </c>
       <c r="F6" s="4">
-        <v>0.458333333333333</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="G6" s="4">
-        <v>0.489583333333333</v>
+        <v>0.48958333333333298</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1123444</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>$J$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="31.5" customWidth="1"/>
-    <col min="4" max="4" width="20.3833333333333" customWidth="1"/>
-    <col min="5" max="5" width="46.3833333333333" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="46.375" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2060,7 +1489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -2077,11 +1506,11 @@
         <v>75</v>
       </c>
       <c r="F2" s="4">
-        <v>0.416666666666667</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -2101,7 +1530,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -2115,7 +1544,7 @@
         <v>81</v>
       </c>
       <c r="F4" s="4">
-        <v>0.416666666666667</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="G4" s="4">
         <v>0.46875</v>
@@ -2124,13 +1553,36 @@
         <v>82</v>
       </c>
     </row>
+    <row r="5" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5">
+        <v>18337995811</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>$J$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>